--- a/biology/Médecine/Banque_de_données_en_santé_publique/Banque_de_données_en_santé_publique.xlsx
+++ b/biology/Médecine/Banque_de_données_en_santé_publique/Banque_de_données_en_santé_publique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Banque_de_donn%C3%A9es_en_sant%C3%A9_publique</t>
+          <t>Banque_de_données_en_santé_publique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créée à l’initiative de la Direction générale de la santé, la Banque de données en santé publique (ou BDSP) était un portail d’information en ligne fondé sur une couverture multidisciplinaire de la santé publique. Il proposait depuis 1993 des services d'information en ligne destinés aux professionnels des secteurs sanitaire et social en exercice ou en formation. Ce portail était totalement gratuit depuis le 1er janvier 2006. Des difficultés de financements semblent avoir conduit à la fermeture du site courant 2019[1]. L'archive de la base de données a été pris en charge par l'INIST[2] avant que le service ne soit définitivement interrompu à l'été 2022.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créée à l’initiative de la Direction générale de la santé, la Banque de données en santé publique (ou BDSP) était un portail d’information en ligne fondé sur une couverture multidisciplinaire de la santé publique. Il proposait depuis 1993 des services d'information en ligne destinés aux professionnels des secteurs sanitaire et social en exercice ou en formation. Ce portail était totalement gratuit depuis le 1er janvier 2006. Des difficultés de financements semblent avoir conduit à la fermeture du site courant 2019. L'archive de la base de données a été pris en charge par l'INIST avant que le service ne soit définitivement interrompu à l'été 2022.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Banque_de_donn%C3%A9es_en_sant%C3%A9_publique</t>
+          <t>Banque_de_données_en_santé_publique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La BDSP était le résultat du travail collaboratif d’un réseau de coopération documentaire constitué d’une quarantaine d’organismes.
 Sur le plan juridique, la BDSP était régie par une convention cadre, en date de 1993, qui définissait son fonctionnement. La mise en œuvre et la gestion des moyens ont été confiées à l'École des hautes études en santé publique (EHESP)  qui assumait son engagement envers le réseau en contribuant au financement d’une équipe permanente, connue sous le nom de Service de la Banque de données en santé publique.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Banque_de_donn%C3%A9es_en_sant%C3%A9_publique</t>
+          <t>Banque_de_données_en_santé_publique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Les services</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site proposait un annuaire de sites, des appels à projets, une base documentaire, des bibliographies, le blog du site, des collections, des colloques, un glossaire, des offres d'emploi et un thésaurus.
 </t>
